--- a/docs/StructureDefinition-VAProgressNoteEncounter.xlsx
+++ b/docs/StructureDefinition-VAProgressNoteEncounter.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="467">
   <si>
     <t>Path</t>
   </si>
@@ -314,213 +314,210 @@
     <t>Encounter.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>Encounter.status</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+  </si>
+  <si>
+    <t>Note that internal business rules will detemine the appropraite transitions that may occur between statuses (and also classes).
+This element is labeled as a modifier because the status contains codes that mark the encounter as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Current state of the encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>List of past encounter statuses</t>
+  </si>
+  <si>
+    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
+  </si>
+  <si>
+    <t>The current status is always found in the current version of the resource, not the status history.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.status</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified status</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified status.</t>
+  </si>
+  <si>
+    <t>Encounter.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +.</t>
+  </si>
+  <si>
+    <t>Classification of the encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-ActEncounterCode</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>PV1-2</t>
+  </si>
+  <si>
+    <t>Encounter.class.id</t>
+  </si>
+  <si>
+    <t>Encounter.class.extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>Encounter.status</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
-  </si>
-  <si>
-    <t>Note that internal business rules will detemine the appropraite transitions that may occur between statuses (and also classes).
-This element is labeled as a modifier because the status contains codes that mark the encounter as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Current state of the encounter</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>List of past encounter statuses</t>
-  </si>
-  <si>
-    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
-  </si>
-  <si>
-    <t>The current status is always found in the current version of the resource, not the status history.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.status</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>The time that the episode was in the specified status</t>
-  </si>
-  <si>
-    <t>The time that the episode was in the specified status.</t>
-  </si>
-  <si>
-    <t>Encounter.class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>inpatient | outpatient | ambulatory | emergency +</t>
-  </si>
-  <si>
-    <t>inpatient | outpatient | ambulatory | emergency +.</t>
-  </si>
-  <si>
-    <t>Classification of the encounter</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-ActEncounterCode</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>PV1-2</t>
-  </si>
-  <si>
-    <t>Encounter.class.id</t>
-  </si>
-  <si>
-    <t>Encounter.class.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Encounter.class.system</t>
@@ -2560,7 +2557,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2579,15 +2576,17 @@
         <v>43</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>43</v>
@@ -2624,14 +2623,16 @@
         <v>43</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>100</v>
@@ -2652,7 +2653,7 @@
         <v>43</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>43</v>
@@ -2667,7 +2668,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2686,16 +2687,16 @@
         <v>43</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2745,7 +2746,7 @@
         <v>43</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2774,7 +2775,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2797,13 +2798,13 @@
         <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2854,7 +2855,7 @@
         <v>43</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2872,18 +2873,18 @@
         <v>43</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>113</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2909,13 +2910,13 @@
         <v>69</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2941,60 +2942,60 @@
         <v>43</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>123</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3017,16 +3018,16 @@
         <v>43</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3076,7 +3077,7 @@
         <v>43</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -3088,13 +3089,13 @@
         <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>43</v>
@@ -3105,7 +3106,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3128,13 +3129,13 @@
         <v>43</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3185,7 +3186,7 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3203,7 +3204,7 @@
         <v>43</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>43</v>
@@ -3214,11 +3215,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3237,16 +3238,16 @@
         <v>43</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3296,7 +3297,7 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3314,7 +3315,7 @@
         <v>43</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>43</v>
@@ -3325,11 +3326,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3348,16 +3349,16 @@
         <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3407,7 +3408,7 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3436,7 +3437,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3462,10 +3463,10 @@
         <v>69</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3492,14 +3493,14 @@
         <v>43</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="X17" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>43</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>50</v>
@@ -3534,7 +3535,7 @@
         <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>43</v>
@@ -3545,7 +3546,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3568,13 +3569,13 @@
         <v>43</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3625,7 +3626,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>50</v>
@@ -3643,7 +3644,7 @@
         <v>43</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>43</v>
@@ -3654,7 +3655,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3677,13 +3678,13 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3713,57 +3714,57 @@
         <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3786,13 +3787,13 @@
         <v>43</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3843,7 +3844,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3861,7 +3862,7 @@
         <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>43</v>
@@ -3872,11 +3873,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3895,16 +3896,16 @@
         <v>43</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3942,19 +3943,19 @@
         <v>43</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3972,7 +3973,7 @@
         <v>43</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>43</v>
@@ -3983,7 +3984,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4009,16 +4010,16 @@
         <v>63</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>43</v>
@@ -4067,36 +4068,36 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4119,16 +4120,16 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4178,43 +4179,43 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s" s="2">
         <v>41</v>
@@ -4235,14 +4236,14 @@
         <v>69</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>43</v>
@@ -4291,36 +4292,36 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4343,17 +4344,17 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>43</v>
@@ -4402,36 +4403,36 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4454,19 +4455,19 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>43</v>
@@ -4515,36 +4516,36 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4567,13 +4568,13 @@
         <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4624,7 +4625,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4636,13 +4637,13 @@
         <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>43</v>
@@ -4653,7 +4654,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4676,13 +4677,13 @@
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4733,7 +4734,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4751,7 +4752,7 @@
         <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>43</v>
@@ -4762,11 +4763,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4785,16 +4786,16 @@
         <v>43</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4844,7 +4845,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4862,7 +4863,7 @@
         <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>43</v>
@@ -4873,11 +4874,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4896,16 +4897,16 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4955,7 +4956,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4984,7 +4985,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5007,13 +5008,13 @@
         <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5043,10 +5044,10 @@
         <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>43</v>
@@ -5064,7 +5065,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>50</v>
@@ -5082,7 +5083,7 @@
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>43</v>
@@ -5093,7 +5094,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5116,13 +5117,13 @@
         <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5173,7 +5174,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>50</v>
@@ -5191,7 +5192,7 @@
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>43</v>
@@ -5202,7 +5203,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5225,16 +5226,16 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5260,14 +5261,14 @@
         <v>43</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>43</v>
       </c>
@@ -5284,7 +5285,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5302,18 +5303,18 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>220</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5336,13 +5337,13 @@
         <v>43</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5369,64 +5370,64 @@
         <v>43</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5445,16 +5446,16 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5504,7 +5505,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5522,18 +5523,18 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5556,13 +5557,13 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5613,7 +5614,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5631,18 +5632,18 @@
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5665,13 +5666,13 @@
         <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5722,7 +5723,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5740,7 +5741,7 @@
         <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>43</v>
@@ -5751,7 +5752,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5774,13 +5775,13 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5831,7 +5832,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5843,24 +5844,24 @@
         <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>252</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5883,13 +5884,13 @@
         <v>43</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5940,7 +5941,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5958,7 +5959,7 @@
         <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>43</v>
@@ -5969,11 +5970,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5992,16 +5993,16 @@
         <v>43</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6051,7 +6052,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6069,7 +6070,7 @@
         <v>43</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>43</v>
@@ -6080,11 +6081,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6103,16 +6104,16 @@
         <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6162,7 +6163,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6191,7 +6192,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6214,16 +6215,16 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6252,10 +6253,10 @@
         <v>73</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>43</v>
@@ -6273,7 +6274,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6291,18 +6292,18 @@
         <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6325,13 +6326,13 @@
         <v>43</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6382,7 +6383,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6400,7 +6401,7 @@
         <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>43</v>
@@ -6411,11 +6412,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6434,16 +6435,16 @@
         <v>43</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6481,19 +6482,19 @@
         <v>43</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6511,7 +6512,7 @@
         <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>43</v>
@@ -6522,7 +6523,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6545,19 +6546,19 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>43</v>
@@ -6606,7 +6607,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6624,18 +6625,18 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6658,13 +6659,13 @@
         <v>43</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6715,7 +6716,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6733,7 +6734,7 @@
         <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>43</v>
@@ -6744,11 +6745,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6767,16 +6768,16 @@
         <v>43</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6814,19 +6815,19 @@
         <v>43</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6844,7 +6845,7 @@
         <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>43</v>
@@ -6855,7 +6856,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6881,23 +6882,23 @@
         <v>63</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>43</v>
@@ -6939,36 +6940,36 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AF48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6991,16 +6992,16 @@
         <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7050,36 +7051,36 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>175</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7105,21 +7106,21 @@
         <v>69</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>43</v>
@@ -7161,7 +7162,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7179,18 +7180,18 @@
         <v>43</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7213,17 +7214,17 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>43</v>
@@ -7272,36 +7273,36 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AF51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7324,19 +7325,19 @@
         <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>43</v>
@@ -7385,36 +7386,36 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7437,19 +7438,19 @@
         <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7498,36 +7499,36 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7550,13 +7551,13 @@
         <v>43</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7607,7 +7608,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7625,25 +7626,25 @@
         <v>43</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E55" t="s" s="2">
         <v>41</v>
@@ -7661,13 +7662,13 @@
         <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7718,7 +7719,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7733,21 +7734,21 @@
         <v>43</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7770,13 +7771,13 @@
         <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7827,7 +7828,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7845,18 +7846,18 @@
         <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7879,16 +7880,16 @@
         <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7938,7 +7939,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7956,18 +7957,18 @@
         <v>43</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7990,16 +7991,16 @@
         <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8049,7 +8050,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8067,22 +8068,22 @@
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8101,16 +8102,16 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8136,14 +8137,14 @@
         <v>43</v>
       </c>
       <c r="W59" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="X59" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="X59" t="s" s="2">
+      <c r="Y59" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>43</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8178,18 +8179,18 @@
         <v>43</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>335</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8212,13 +8213,13 @@
         <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8269,7 +8270,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8281,13 +8282,13 @@
         <v>43</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>43</v>
@@ -8298,7 +8299,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8321,13 +8322,13 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8378,7 +8379,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8396,7 +8397,7 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>43</v>
@@ -8407,11 +8408,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8430,16 +8431,16 @@
         <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8489,7 +8490,7 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8507,7 +8508,7 @@
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>43</v>
@@ -8518,11 +8519,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8541,16 +8542,16 @@
         <v>51</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8600,7 +8601,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8629,11 +8630,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8652,16 +8653,16 @@
         <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8711,7 +8712,7 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>50</v>
@@ -8729,18 +8730,18 @@
         <v>43</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8763,13 +8764,13 @@
         <v>43</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8796,14 +8797,14 @@
         <v>43</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>43</v>
       </c>
@@ -8820,7 +8821,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8838,7 +8839,7 @@
         <v>43</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>43</v>
@@ -8849,7 +8850,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8872,13 +8873,13 @@
         <v>43</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8929,7 +8930,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8947,7 +8948,7 @@
         <v>43</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>43</v>
@@ -8958,7 +8959,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8981,16 +8982,16 @@
         <v>43</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9040,7 +9041,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9058,7 +9059,7 @@
         <v>43</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>43</v>
@@ -9069,7 +9070,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9092,16 +9093,16 @@
         <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9151,7 +9152,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9163,13 +9164,13 @@
         <v>43</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>43</v>
@@ -9180,7 +9181,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9203,13 +9204,13 @@
         <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9260,7 +9261,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9278,7 +9279,7 @@
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>43</v>
@@ -9289,11 +9290,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9312,16 +9313,16 @@
         <v>43</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9371,7 +9372,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9389,7 +9390,7 @@
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>43</v>
@@ -9400,11 +9401,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9423,16 +9424,16 @@
         <v>51</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9482,7 +9483,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9511,7 +9512,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9534,13 +9535,13 @@
         <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9591,7 +9592,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9609,18 +9610,18 @@
         <v>43</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9643,13 +9644,13 @@
         <v>43</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9700,7 +9701,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9718,7 +9719,7 @@
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>43</v>
@@ -9729,7 +9730,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9752,13 +9753,13 @@
         <v>43</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9785,60 +9786,60 @@
         <v>43</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="Y74" t="s" s="2">
+      <c r="Z74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK74" t="s" s="2">
+      <c r="AL74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9861,13 +9862,13 @@
         <v>43</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9894,60 +9895,60 @@
         <v>43</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Y75" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="Y75" t="s" s="2">
+      <c r="Z75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>395</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9970,19 +9971,19 @@
         <v>43</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
@@ -10007,14 +10008,14 @@
         <v>43</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Y76" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="Z76" t="s" s="2">
         <v>43</v>
       </c>
@@ -10031,7 +10032,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10049,18 +10050,18 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>404</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10083,13 +10084,13 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10116,14 +10117,14 @@
         <v>43</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="Y77" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="Z77" t="s" s="2">
         <v>43</v>
       </c>
@@ -10140,7 +10141,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10158,18 +10159,18 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10192,13 +10193,13 @@
         <v>43</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10225,14 +10226,14 @@
         <v>43</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="Z78" t="s" s="2">
         <v>43</v>
       </c>
@@ -10249,7 +10250,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10267,18 +10268,18 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10301,13 +10302,13 @@
         <v>43</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10358,7 +10359,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10376,18 +10377,18 @@
         <v>43</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>423</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10410,13 +10411,13 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10443,60 +10444,60 @@
         <v>43</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Y80" t="s" s="2">
+      <c r="Z80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK80" t="s" s="2">
+      <c r="AL80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10519,16 +10520,16 @@
         <v>43</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10578,7 +10579,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10590,13 +10591,13 @@
         <v>43</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>43</v>
@@ -10607,7 +10608,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10630,13 +10631,13 @@
         <v>43</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10687,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10705,7 +10706,7 @@
         <v>43</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>43</v>
@@ -10716,11 +10717,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10739,16 +10740,16 @@
         <v>43</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10798,7 +10799,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10816,7 +10817,7 @@
         <v>43</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>43</v>
@@ -10827,11 +10828,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10850,16 +10851,16 @@
         <v>51</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -10909,7 +10910,7 @@
         <v>43</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10938,14 +10939,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D85" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E85" t="s" s="2">
         <v>50</v>
@@ -10963,13 +10964,13 @@
         <v>43</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11020,7 +11021,7 @@
         <v>43</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>50</v>
@@ -11035,21 +11036,21 @@
         <v>43</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AK85" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AL85" t="s" s="2">
+      <c r="AM85" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>445</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11075,13 +11076,13 @@
         <v>69</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11107,49 +11108,49 @@
         <v>43</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="Y86" t="s" s="2">
+      <c r="Z86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK86" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>43</v>
@@ -11160,7 +11161,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11183,13 +11184,13 @@
         <v>43</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11240,7 +11241,7 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11258,7 +11259,7 @@
         <v>43</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>43</v>
@@ -11269,7 +11270,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11292,13 +11293,13 @@
         <v>43</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11349,7 +11350,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11367,18 +11368,18 @@
         <v>43</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>461</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11401,16 +11402,16 @@
         <v>43</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -11460,7 +11461,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11478,7 +11479,7 @@
         <v>43</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>43</v>
